--- a/MinhAnh/b1.xlsx
+++ b/MinhAnh/b1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">Past tense </t>
   </si>
@@ -154,6 +154,42 @@
   </si>
   <si>
     <t>wherever marion found a job, there was someone who knew that she'd gone to the prison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when helen reached the village it was in confusion. </t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Soliders were rushing around carrying equipment but there were not seem to be much purpose to what they were doing </t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>helen had never been in a war zone before, but it was obvious that the men were expecting an attack of some sort</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t xml:space="preserve">she tried to phone her newspaper but her mobile phone had run out the power. </t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>she walked across the street to talk to one of the soldiers when the first flying saucer was flying low above the roofs with a roar.</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>a large building a few hundred metres away disappered in an explosion of flame</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>1 minutes houses burst into flame all around her, and the next minute, just as suddenly, everything went quite, apart from the crackle of the flames</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>some of the soldiers were still firing their weapons, but the flying machines vanished completely</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>the war against the invaders from outer space was begun</t>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
@@ -478,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +777,51 @@
         <v>42</v>
       </c>
     </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MinhAnh/b1.xlsx
+++ b/MinhAnh/b1.xlsx
@@ -184,12 +184,11 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>some of the soldiers were still firing their weapons, but the flying machines vanished completely</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>the war against the invaders from outer space was begun</t>
     <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>some of the soldiers were still firing their weapons, but the flying machines has vanished completely</t>
   </si>
 </sst>
 </file>
@@ -516,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,12 +813,12 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
